--- a/va_facility_data_2025-02-20/Fergus Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fergus%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fergus Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fergus%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra208a9bc131f4ee6b3ff361c300aa0eb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0dc3b486158541b89544e1be3b026bc5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R72e3c427d03f4ab99d1f4a642f1006af"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6bcca6e2ffdb4e75b944d0208ad4e95e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R74af27e39b7544e382f654beab107265"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbc2deb951d5143b7bd5fcba572a28fb9"/>
   </x:sheets>
 </x:workbook>
 </file>
